--- a/Assets/Excels/excel_files/DialogueOptionEntity.xlsx
+++ b/Assets/Excels/excel_files/DialogueOptionEntity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B01A05-B015-492D-8660-AB6C63F2EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2709B-4A67-4C1A-A69E-C6475D657F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53940" yWindow="3420" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>displayTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,19 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nextDialogueLineId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삼겹살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 대화 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,83 +385,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.4140625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9711000</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>9710003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9711001</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>9710005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>9711002</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>9710007</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
